--- a/order.xlsx
+++ b/order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work-place\flutter apps\projects\sharp\BisleriumCafeBackend\BisleriumCafeBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9E9FA5-ED28-4C0D-9B25-F2625C46D1EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888C4A67-C82B-407F-9E03-A5BCBB9432E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <definedName name="Age">Sheet1!$B:$B</definedName>
     <definedName name="Name">Sheet1!$A:$A</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Id</t>
   </si>
@@ -56,13 +56,20 @@
   </si>
   <si>
     <t>RedeemId</t>
+  </si>
+  <si>
+    <t>HasPaid</t>
+  </si>
+  <si>
+    <t>1/7/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -387,37 +394,186 @@
     <col min="5" max="5" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0">
+        <v>200</v>
+      </c>
+      <c r="G2" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0">
+        <v>3</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0">
+        <v>543</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0">
+        <v>343</v>
+      </c>
+      <c r="G4" s="0">
+        <v>4</v>
+      </c>
+      <c r="H4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0">
+        <v>3</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0">
+        <v>343</v>
+      </c>
+      <c r="G5" s="0">
+        <v>4</v>
+      </c>
+      <c r="H5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0">
+        <v>3</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0">
+        <v>343</v>
+      </c>
+      <c r="G6" s="0">
+        <v>4</v>
+      </c>
+      <c r="H6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/order.xlsx
+++ b/order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work-place\flutter apps\projects\sharp\BisleriumCafeBackend\BisleriumCafeBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888C4A67-C82B-407F-9E03-A5BCBB9432E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BBB033-1E95-4E25-A525-E4D344EE6ACB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Id</t>
   </si>
@@ -61,7 +61,10 @@
     <t>HasPaid</t>
   </si>
   <si>
-    <t>1/7/2024</t>
+    <t>1/9/2024</t>
+  </si>
+  <si>
+    <t>1/10/2024</t>
   </si>
 </sst>
 </file>
@@ -380,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J8"/>
+      <selection activeCell="A2" sqref="A2:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,10 +446,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="0">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="G2" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H2" s="0" t="b">
         <v>0</v>
@@ -472,13 +475,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="0">
-        <v>543</v>
+        <v>34</v>
       </c>
       <c r="G3" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="0" t="b">
         <v>1</v>
@@ -501,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>343</v>
+        <v>34</v>
       </c>
       <c r="G4" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H4" s="0" t="b">
         <v>0</v>
@@ -530,16 +533,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>343</v>
+        <v>34</v>
       </c>
       <c r="G5" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H5" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J5" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -559,15 +562,624 @@
         <v>0</v>
       </c>
       <c r="F6" s="0">
-        <v>343</v>
+        <v>34</v>
       </c>
       <c r="G6" s="0">
+        <v>7</v>
+      </c>
+      <c r="H6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0">
+        <v>3</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0">
+        <v>34</v>
+      </c>
+      <c r="G7" s="0">
+        <v>7</v>
+      </c>
+      <c r="H7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0">
+        <v>3</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0">
+        <v>34</v>
+      </c>
+      <c r="G8" s="0">
+        <v>7</v>
+      </c>
+      <c r="H8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0">
+        <v>3</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0">
+        <v>34</v>
+      </c>
+      <c r="G9" s="0">
+        <v>7</v>
+      </c>
+      <c r="H9" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0">
+        <v>3</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0">
+        <v>34</v>
+      </c>
+      <c r="G10" s="0">
+        <v>7</v>
+      </c>
+      <c r="H10" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0">
+        <v>3</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0">
+        <v>34</v>
+      </c>
+      <c r="G11" s="0">
+        <v>7</v>
+      </c>
+      <c r="H11" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0">
+        <v>3</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0">
+        <v>34</v>
+      </c>
+      <c r="G12" s="0">
+        <v>7</v>
+      </c>
+      <c r="H12" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0">
+        <v>3</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0">
+        <v>34</v>
+      </c>
+      <c r="G13" s="0">
+        <v>7</v>
+      </c>
+      <c r="H13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0">
+        <v>3</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0">
+        <v>34</v>
+      </c>
+      <c r="G14" s="0">
+        <v>7</v>
+      </c>
+      <c r="H14" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0">
+        <v>3</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0">
+        <v>34</v>
+      </c>
+      <c r="G15" s="0">
+        <v>7</v>
+      </c>
+      <c r="H15" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0">
+        <v>3</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0">
+        <v>34</v>
+      </c>
+      <c r="G16" s="0">
+        <v>7</v>
+      </c>
+      <c r="H16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0">
+        <v>3</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0">
+        <v>34</v>
+      </c>
+      <c r="G17" s="0">
+        <v>7</v>
+      </c>
+      <c r="H17" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0">
+        <v>3</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0">
+        <v>34</v>
+      </c>
+      <c r="G18" s="0">
+        <v>7</v>
+      </c>
+      <c r="H18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0">
+        <v>3</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="0">
+        <v>34</v>
+      </c>
+      <c r="G19" s="0">
+        <v>7</v>
+      </c>
+      <c r="H19" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0">
+        <v>34</v>
+      </c>
+      <c r="G20" s="0">
+        <v>7</v>
+      </c>
+      <c r="H20" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0">
+        <v>3</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="0">
+        <v>34</v>
+      </c>
+      <c r="G21" s="0">
+        <v>7</v>
+      </c>
+      <c r="H21" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0">
+        <v>3</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0">
+        <v>34</v>
+      </c>
+      <c r="G22" s="0">
+        <v>7</v>
+      </c>
+      <c r="H22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0">
+        <v>3</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="0">
+        <v>0</v>
+      </c>
+      <c r="G23" s="0">
+        <v>7</v>
+      </c>
+      <c r="H23" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0">
+        <v>3</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0">
+        <v>30.6</v>
+      </c>
+      <c r="G24" s="0">
+        <v>7</v>
+      </c>
+      <c r="H24" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0">
         <v>4</v>
       </c>
-      <c r="H6" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0" t="b">
+      <c r="C25" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="0">
+        <v>34</v>
+      </c>
+      <c r="G25" s="0">
+        <v>7</v>
+      </c>
+      <c r="H25" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0">
+        <v>4</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="0">
+        <v>434</v>
+      </c>
+      <c r="G26" s="0">
+        <v>7</v>
+      </c>
+      <c r="H26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0">
+        <v>3</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0">
+        <v>430.6</v>
+      </c>
+      <c r="G27" s="0">
+        <v>7</v>
+      </c>
+      <c r="H27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="0" t="b">
         <v>0</v>
       </c>
     </row>
